--- a/Excel Practice Tasks.xlsx
+++ b/Excel Practice Tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shahi\OneDrive\Desktop\Github\Data-Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF79CD5C-6BDC-4444-B040-4C96775394CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48D7665-F015-43B4-B0DE-4D0A8046941D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2657F05A-14C3-435E-A5D1-53647685FE3A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{2657F05A-14C3-435E-A5D1-53647685FE3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Task 1" sheetId="1" r:id="rId1"/>
@@ -623,9 +623,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="172" formatCode="&quot;₹&quot;\ #,##0"/>
-    <numFmt numFmtId="177" formatCode="[$$-C09]#,##0"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0"/>
+    <numFmt numFmtId="165" formatCode="[$$-C09]#,##0"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -989,10 +989,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1001,26 +1000,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1028,66 +1018,33 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1099,20 +1056,8 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1126,8 +1071,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1514,411 +1513,409 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F72D3CB-BB40-4C79-B714-27161894578C}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="8" width="12.77734375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>32000</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="14">
         <v>44573</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>45000</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="14">
         <v>44260</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>38000</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="14">
         <v>44030</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>52000</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="14">
         <v>43779</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>30000</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="14">
         <v>45102</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>47097</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="14">
         <v>45703</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>37810</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="14">
         <v>45673</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>38761</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="14">
         <v>45732</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>35117</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="14">
         <v>45782</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>32514</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="14">
         <v>45672</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>39200</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="14">
         <v>45787</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>45917</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="14">
         <v>45781</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>51413</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="14">
         <v>45730</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>50096</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="14">
         <v>45802</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>38133</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="14">
         <v>45725</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>38217</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="14">
         <v>45716</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>41154</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="14">
         <v>45712</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>45215</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="14">
         <v>45779</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>50946</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="14">
         <v>45742</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="13">
         <v>49103</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="15">
         <v>45684</v>
       </c>
     </row>
@@ -1949,191 +1946,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="21">
         <v>28000</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="21">
         <v>34000</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="21">
         <v>51000</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="21">
         <v>47000</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="21">
         <v>29000</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="21">
         <v>32354</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="21">
         <v>49369</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="21">
         <v>44266</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="21">
         <v>45832</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="21">
         <v>31381</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="21">
         <v>46216</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="21">
         <v>48626</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="21">
         <v>36100</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="21">
         <v>39133</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="21">
         <v>38800</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="21">
         <v>48142</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="21">
         <v>37369</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="21">
         <v>39415</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="21">
         <v>47990</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="21">
         <v>43445</v>
       </c>
     </row>
@@ -2144,15 +2141,15 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B22">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
-      <formula>30000</formula>
-      <formula>49999</formula>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>50000</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>30000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
-      <formula>50000</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
+      <formula>30000</formula>
+      <formula>49999</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2164,7 +2161,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2177,379 +2174,379 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="19"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="17">
         <v>45000</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="17">
         <v>1200</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="17">
         <v>18000</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="17">
         <v>62000</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="17">
         <v>49676</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="17">
         <v>53454</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="17">
         <v>51120</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="17">
         <v>45125</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="17">
         <v>61832</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="17">
         <v>60931</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="17">
         <v>59404</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="17">
         <v>47849</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="17">
         <v>58767</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="17">
         <v>52005</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="17">
         <v>46141</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="17">
         <v>51276</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="17">
         <v>56487</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="17">
         <v>48531</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="17">
         <v>45826</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="17">
         <v>54689</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="17">
         <v>54987</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="17">
         <v>45244</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="17">
         <v>50784</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="17">
         <v>54801</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2569,7 +2566,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2584,465 +2581,465 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="19"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>78</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>82</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>74</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="18">
         <f>SUM(C3:E3)/300</f>
         <v>0.78</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>65</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>70</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>68</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="18">
         <f t="shared" ref="F4:F22" si="0">SUM(C4:E4)/300</f>
         <v>0.67666666666666664</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>90</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>88</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>92</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="18">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>35</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>40</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>38</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="18">
         <f t="shared" si="0"/>
         <v>0.37666666666666665</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>55</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>60</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>58</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="18">
         <f t="shared" si="0"/>
         <v>0.57666666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>90</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>63</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>81</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="18">
         <f t="shared" si="0"/>
         <v>0.78</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>57</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>72</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>57</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="18">
         <f t="shared" si="0"/>
         <v>0.62</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>82</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>62</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>82</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="18">
         <f t="shared" si="0"/>
         <v>0.7533333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>75</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>64</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>80</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="18">
         <f t="shared" si="0"/>
         <v>0.73</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>67</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>58</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>75</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="18">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>54</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>93</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>53</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="18">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>90</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>74</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>83</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="18">
         <f t="shared" si="0"/>
         <v>0.82333333333333336</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>98</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>50</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>71</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="18">
         <f t="shared" si="0"/>
         <v>0.73</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>58</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>59</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>90</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="18">
         <f t="shared" si="0"/>
         <v>0.69</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>82</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>91</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>59</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="18">
         <f t="shared" si="0"/>
         <v>0.77333333333333332</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>82</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>72</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>56</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="18">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>66</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>86</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>76</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="18">
         <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>62</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>56</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>82</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="18">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>94</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>73</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>99</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="18">
         <f t="shared" si="0"/>
         <v>0.88666666666666671</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>70</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>88</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>60</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="18">
         <f t="shared" si="0"/>
         <v>0.72666666666666668</v>
       </c>
@@ -3074,278 +3071,278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="20">
         <v>45299</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>32000</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="21"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="20">
         <v>45295</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>31979</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="20">
         <v>45297</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>31666</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="20">
         <v>45301</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>31528</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="I6" s="33"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="20">
         <v>45297</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>29579</v>
       </c>
-      <c r="I7" s="33"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="20">
         <v>45296</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>29470</v>
       </c>
-      <c r="I8" s="33"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="20">
         <v>45295</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>28724</v>
       </c>
-      <c r="I9" s="33"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="20">
         <v>45293</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>26607</v>
       </c>
-      <c r="I10" s="33"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="20">
         <v>45294</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>25000</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="20">
         <v>45299</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>21463</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="20">
         <v>45294</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>19779</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="20">
         <v>45297</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>17232</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="20">
         <v>45294</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>15437</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="20">
         <v>45301</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>15000</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="20">
         <v>45300</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>14389</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="20">
         <v>45292</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>12000</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="20">
         <v>45299</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>10420</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="20">
         <v>45298</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>9612</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="20">
         <v>45300</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>9472</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="20">
         <v>45296</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>8000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="37">
+      <c r="B23" s="44"/>
+      <c r="C23" s="22">
         <f>SUM(C3:C22)</f>
         <v>419357</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="38">
+      <c r="B24" s="44"/>
+      <c r="C24" s="23">
         <f>AVERAGE(C3:C22)</f>
         <v>20967.849999999999</v>
       </c>
@@ -3367,8 +3364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9BC718-CAFA-4009-817F-2E0C805E2714}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3381,336 +3378,336 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="19"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>28000</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>45000</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="24">
         <f>SUMIFS(C:C,B:B,E:E)</f>
         <v>262866</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>50000</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="24">
         <f>SUMIFS(C:C,B:B,E:E)</f>
         <v>291593</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>42000</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="24">
         <f>SUMIFS(C:C,B:B,E:E)</f>
         <v>233830</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>30000</v>
       </c>
-      <c r="F7" s="33"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>38000</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>41264</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="24">
         <f>AVERAGEIF(B:B,E:E,C:C)</f>
         <v>37552.285714285717</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>48401</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="24">
         <f>AVERAGEIF(B:B,E:E,C:C)</f>
         <v>41656.142857142855</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>32564</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="24">
         <f>AVERAGEIF(B:B,E:E,C:C)</f>
         <v>38971.666666666664</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>43108</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>47501</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>36468</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="24">
         <f>COUNTIFS(B:B,E:E)</f>
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>37208</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="24">
         <f>COUNTIFS(B:B,E:E)</f>
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>44093</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="24">
         <f>COUNTIFS(B:B,E:E)</f>
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>38583</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>29178</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>35673</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>45076</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>43220</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>32952</v>
       </c>
     </row>
@@ -3741,574 +3738,574 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="36">
+      <c r="D3" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="21">
         <v>4</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="21">
         <v>1</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="K3" s="21"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="36" t="s">
+      <c r="B4" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="36">
+      <c r="F4" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="21">
         <v>4</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="21">
         <v>1</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="36">
+      <c r="C5" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="21">
         <v>4</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="21">
         <v>1</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="36" t="s">
+      <c r="B6" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="36" t="s">
+      <c r="E6" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="21">
         <v>2</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="21">
         <v>3</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="36" t="s">
+      <c r="B7" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G7" s="36">
+      <c r="D7" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="21">
         <v>4</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="36" t="s">
+      <c r="B8" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="36">
+      <c r="F8" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="21">
         <v>4</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="36">
+      <c r="C9" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="21">
         <v>4</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="36" t="s">
+      <c r="E10" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="21">
         <v>2</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="36" t="s">
+      <c r="B11" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="36">
+      <c r="D11" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="21">
         <v>4</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="36" t="s">
+      <c r="B12" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G12" s="36">
+      <c r="F12" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="21">
         <v>4</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13" s="36">
+      <c r="C13" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="21">
         <v>4</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" s="36" t="s">
+      <c r="E14" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="21">
         <v>2</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="36" t="s">
+      <c r="B15" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" s="36">
+      <c r="D15" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="21">
         <v>4</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="36" t="s">
+      <c r="B16" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="36">
+      <c r="F16" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="21">
         <v>4</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" s="36">
+      <c r="C17" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" s="21">
         <v>4</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="36" t="s">
+      <c r="B18" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="36" t="s">
+      <c r="E18" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="21">
         <v>2</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="36" t="s">
+      <c r="B19" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="36">
+      <c r="D19" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" s="21">
         <v>4</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="36" t="s">
+      <c r="B20" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="36">
+      <c r="F20" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="21">
         <v>4</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="36">
+      <c r="C21" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="21">
         <v>4</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="36" t="s">
+      <c r="B22" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="36" t="s">
+      <c r="E22" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="21">
         <v>2</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="21">
         <v>3</v>
       </c>
     </row>
@@ -4338,194 +4335,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="21">
         <v>4500</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="26">
         <f>COUNTIFS(B:B,"&gt;10000")</f>
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="21">
         <v>12000</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="28">
         <f>COUNTIFS(B:B,"&lt;5000")</f>
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="21">
         <v>8000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="21">
         <v>25000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="21">
         <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="21">
         <v>15000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="21">
         <v>23723</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="21">
         <v>24671</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="21">
         <v>12862</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="21">
         <v>23023</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="21">
         <v>16654</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="21">
         <v>13038</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="21">
         <v>3713</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="21">
         <v>8173</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="21">
         <v>19616</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="21">
         <v>15153</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="21">
         <v>4561</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="21">
         <v>4793</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="21">
         <v>24006</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="21">
         <v>23518</v>
       </c>
     </row>
@@ -4555,190 +4552,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="21">
         <v>22000</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="21">
         <v>3500</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="21">
         <v>58000</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="21">
         <v>1800</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="21">
         <v>12000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="21">
         <v>12788</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="21">
         <v>3591</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="21">
         <v>21779</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="21">
         <v>8341</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="21">
         <v>10455</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="21">
         <v>5304</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="21">
         <v>13140</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="21">
         <v>20243</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="21">
         <v>11733</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="21">
         <v>6862</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="21">
         <v>4963</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="21">
         <v>4506</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="21">
         <v>21843</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="21">
         <v>14370</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="21">
         <v>4246</v>
       </c>
     </row>
@@ -4776,254 +4773,254 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="19"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="36">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="21">
         <v>85</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="36">
+      <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="21">
         <v>72</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36">
+      <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="21">
         <v>39</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="36">
+      <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="21">
         <v>91</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36">
+      <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="21">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="36">
+      <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="21">
         <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="36">
+      <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="21">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="36">
+      <c r="A10" s="21">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="21">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="36">
+      <c r="A11" s="21">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="21">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="36">
+      <c r="A12" s="21">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="21">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="36">
+      <c r="A13" s="21">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="21">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="36">
+      <c r="A14" s="21">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="21">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="36">
+      <c r="A15" s="21">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="21">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="36">
+      <c r="A16" s="21">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="21">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="36">
+      <c r="A17" s="21">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="21">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="36">
+      <c r="A18" s="21">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="21">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="36">
+      <c r="A19" s="21">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="21">
         <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="36">
+      <c r="A20" s="21">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="21">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="36">
+      <c r="A21" s="21">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="21">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="36">
+      <c r="A22" s="21">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="21">
         <v>55</v>
       </c>
     </row>
